--- a/Макеты/ADO_En_En/ВА_ЗагрузкаADO_En_En.xlsx
+++ b/Макеты/ADO_En_En/ВА_ЗагрузкаADO_En_En.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1B509-9243-4C8D-B13E-438FECE1B50C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CDD57-E8BA-4493-B36C-8171651DFC90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
